--- a/sofaplayer/Ligue_1/Lorient_stats.xlsx
+++ b/sofaplayer/Ligue_1/Lorient_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>1102503</v>
       </c>
       <c r="E2" t="n">
-        <v>6.6888888888889</v>
+        <v>6.68</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2374</v>
+        <v>2.4201</v>
       </c>
       <c r="L2" t="n">
-        <v>122.33333333333</v>
+        <v>147</v>
       </c>
       <c r="M2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>10</v>
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>17.647058823529</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.10768387</v>
+        <v>0.1101756</v>
       </c>
       <c r="AB2" t="n">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="AC2" t="n">
         <v>2</v>
@@ -1113,22 +1113,22 @@
         <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="n">
-        <v>68.518518518519</v>
+        <v>70.769230769231</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>1</v>
@@ -1146,13 +1146,13 @@
         <v>1</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS2" t="n">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1179,34 +1179,34 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>39.622641509434</v>
+        <v>41.379310344828</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
-        <v>38.709677419355</v>
+        <v>40.625</v>
       </c>
       <c r="BE2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BF2" t="n">
-        <v>40.909090909091</v>
+        <v>42.307692307692</v>
       </c>
       <c r="BG2" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="BH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI2" t="n">
         <v>6</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK2" t="n">
         <v>2</v>
@@ -1227,22 +1227,22 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>60.2</v>
+        <v>66.8</v>
       </c>
       <c r="BR2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BS2" t="n">
         <v>4</v>
       </c>
       <c r="BT2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="BZ2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CA2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CB2" t="n">
         <v>9</v>
@@ -1314,13 +1314,13 @@
         <v>6</v>
       </c>
       <c r="CT2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="CV2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="DB2" t="n">
-        <v>50</v>
+        <v>33.333333333333</v>
       </c>
       <c r="DC2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="DG2" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>1103141</v>
       </c>
       <c r="E5" t="n">
-        <v>6.6789473684211</v>
+        <v>6.665</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
         <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>5.1349</v>
       </c>
       <c r="L5" t="n">
-        <v>197.5</v>
+        <v>201.5</v>
       </c>
       <c r="M5" t="n">
         <v>26</v>
@@ -2169,34 +2169,34 @@
         <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7547386699999999</v>
+        <v>0.76350806</v>
       </c>
       <c r="AB5" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AF5" t="n">
-        <v>74.48275862069001</v>
+        <v>74.666666666667</v>
       </c>
       <c r="AG5" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AH5" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AJ5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK5" t="n">
         <v>2</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP5" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="AR5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS5" t="n">
         <v>1</v>
@@ -2265,7 +2265,7 @@
         <v>42.592592592593</v>
       </c>
       <c r="BG5" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BH5" t="n">
         <v>14</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>126.9</v>
+        <v>133.3</v>
       </c>
       <c r="BR5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS5" t="n">
         <v>6</v>
       </c>
       <c r="BT5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS5" t="n">
         <v>12</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="DG5" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>1130307</v>
       </c>
       <c r="E6" t="n">
-        <v>6.7526315789474</v>
+        <v>6.745</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -2477,13 +2477,13 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9044</v>
+        <v>0.956</v>
       </c>
       <c r="L6" t="n">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="M6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>9.090909090909101</v>
+        <v>8.3333333333333</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -2525,10 +2525,10 @@
         <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.68341662</v>
+        <v>0.71828572</v>
       </c>
       <c r="AB6" t="n">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="AC6" t="n">
         <v>1</v>
@@ -2537,28 +2537,28 @@
         <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="AF6" t="n">
-        <v>84.375</v>
+        <v>84.741144414169</v>
       </c>
       <c r="AG6" t="n">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="AH6" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AI6" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AJ6" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>46.153846153846</v>
+        <v>48.148148148148</v>
       </c>
       <c r="AM6" t="n">
         <v>1</v>
@@ -2606,25 +2606,25 @@
         <v>61</v>
       </c>
       <c r="BB6" t="n">
-        <v>48.031496062992</v>
+        <v>46.923076923077</v>
       </c>
       <c r="BC6" t="n">
         <v>57</v>
       </c>
       <c r="BD6" t="n">
-        <v>52.293577981651</v>
+        <v>51.351351351351</v>
       </c>
       <c r="BE6" t="n">
         <v>4</v>
       </c>
       <c r="BF6" t="n">
-        <v>22.222222222222</v>
+        <v>21.052631578947</v>
       </c>
       <c r="BG6" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="BH6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BI6" t="n">
         <v>26</v>
@@ -2651,22 +2651,22 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>128.3</v>
+        <v>134.9</v>
       </c>
       <c r="BR6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS6" t="n">
         <v>3</v>
       </c>
       <c r="BT6" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CA6" t="n">
         <v>2</v>
       </c>
       <c r="CB6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CC6" t="n">
         <v>14</v>
@@ -2741,10 +2741,10 @@
         <v>12</v>
       </c>
       <c r="CU6" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="CV6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="DA6" t="n">
         <v>12</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="DG6" t="n">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>1465307</v>
       </c>
       <c r="E7" t="n">
-        <v>7.0105263157895</v>
+        <v>6.98</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
         <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>1400</v>
+        <v>1423</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -2881,10 +2881,10 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.27023513</v>
+        <v>2.28307523</v>
       </c>
       <c r="AB7" t="n">
-        <v>1060</v>
+        <v>1080</v>
       </c>
       <c r="AC7" t="n">
         <v>3</v>
@@ -2893,34 +2893,34 @@
         <v>22</v>
       </c>
       <c r="AE7" t="n">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="AF7" t="n">
-        <v>84.210526315789</v>
+        <v>84.19071518193201</v>
       </c>
       <c r="AG7" t="n">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="AH7" t="n">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="AI7" t="n">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AJ7" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AK7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>65.789473684211</v>
+        <v>66.233766233766</v>
       </c>
       <c r="AM7" t="n">
         <v>8</v>
       </c>
       <c r="AN7" t="n">
-        <v>25.806451612903</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>22</v>
@@ -2935,7 +2935,7 @@
         <v>85</v>
       </c>
       <c r="AS7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT7" t="n">
         <v>13</v>
@@ -2953,31 +2953,31 @@
         <v>1</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="n">
-        <v>60.714285714286</v>
+        <v>62.068965517241</v>
       </c>
       <c r="BA7" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BB7" t="n">
-        <v>57.5</v>
+        <v>57.055214723926</v>
       </c>
       <c r="BC7" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BD7" t="n">
-        <v>60</v>
+        <v>59.859154929577</v>
       </c>
       <c r="BE7" t="n">
         <v>8</v>
       </c>
       <c r="BF7" t="n">
-        <v>40</v>
+        <v>38.095238095238</v>
       </c>
       <c r="BG7" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BH7" t="n">
         <v>13</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>133.2</v>
+        <v>139.6</v>
       </c>
       <c r="BR7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS7" t="n">
         <v>1</v>
       </c>
       <c r="BT7" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3091,16 +3091,16 @@
         <v>22</v>
       </c>
       <c r="CS7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CT7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CU7" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="CV7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="DA7" t="n">
         <v>22</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="DG7" t="n">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="DH7" t="n">
         <v>3</v>
@@ -3171,40 +3171,40 @@
         <v>1174462</v>
       </c>
       <c r="E8" t="n">
-        <v>6.9444444444444</v>
+        <v>7.0263157894737</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
+        <v>14</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1130</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.2717</v>
+      </c>
+      <c r="L8" t="n">
+        <v>161.42857142857</v>
+      </c>
+      <c r="M8" t="n">
+        <v>37</v>
+      </c>
+      <c r="N8" t="n">
         <v>13</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1056</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.1227</v>
-      </c>
-      <c r="L8" t="n">
-        <v>176</v>
-      </c>
-      <c r="M8" t="n">
-        <v>35</v>
-      </c>
-      <c r="N8" t="n">
-        <v>12</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>17.142857142857</v>
+        <v>18.918918918919</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -3216,20 +3216,20 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X8" t="n">
         <v>5</v>
       </c>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2</v>
-      </c>
-      <c r="X8" t="n">
-        <v>4</v>
-      </c>
       <c r="Y8" t="n">
         <v>2</v>
       </c>
@@ -3237,61 +3237,61 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.28373832</v>
+        <v>1.55085432</v>
       </c>
       <c r="AB8" t="n">
-        <v>620</v>
+        <v>667</v>
       </c>
       <c r="AC8" t="n">
         <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="AF8" t="n">
-        <v>76.881720430108</v>
+        <v>77.227722772277</v>
       </c>
       <c r="AG8" t="n">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="AH8" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AI8" t="n">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AJ8" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="AK8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>68.292682926829</v>
+        <v>67.44186046511599</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>23.076923076923</v>
       </c>
       <c r="AO8" t="n">
         <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR8" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AS8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT8" t="n">
         <v>16</v>
@@ -3309,37 +3309,37 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ8" t="n">
-        <v>42.307692307692</v>
+        <v>44.827586206897</v>
       </c>
       <c r="BA8" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="BB8" t="n">
-        <v>39.252336448598</v>
+        <v>40.51724137931</v>
       </c>
       <c r="BC8" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="BD8" t="n">
-        <v>42.857142857143</v>
+        <v>44.565217391304</v>
       </c>
       <c r="BE8" t="n">
         <v>6</v>
       </c>
       <c r="BF8" t="n">
-        <v>26.086956521739</v>
+        <v>25</v>
       </c>
       <c r="BG8" t="n">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="BH8" t="n">
         <v>15</v>
       </c>
       <c r="BI8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BJ8" t="n">
         <v>2</v>
@@ -3363,22 +3363,22 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>125</v>
+        <v>133.5</v>
       </c>
       <c r="BR8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BT8" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BW8" t="n">
         <v>1</v>
@@ -3390,16 +3390,16 @@
         <v>4</v>
       </c>
       <c r="BZ8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CA8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CB8" t="n">
         <v>11</v>
       </c>
       <c r="CC8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CD8" t="n">
         <v>17</v>
@@ -3444,19 +3444,19 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CS8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CT8" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CU8" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="CV8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="DA8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DB8" t="n">
-        <v>53.333333333333</v>
+        <v>56.25</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="DG8" t="n">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>1402217</v>
       </c>
       <c r="E9" t="n">
-        <v>6.7666666666667</v>
+        <v>6.725</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.41959055</v>
+        <v>0.41959176</v>
       </c>
       <c r="AB9" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC9" t="n">
         <v>1</v>
@@ -3605,16 +3605,16 @@
         <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AF9" t="n">
-        <v>82.45614035087701</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>34</v>
@@ -3638,13 +3638,13 @@
         <v>5</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ9" t="n">
         <v>3</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS9" t="n">
         <v>2</v>
@@ -3668,19 +3668,19 @@
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>16.666666666667</v>
+        <v>14.285714285714</v>
       </c>
       <c r="BA9" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>39.130434782609</v>
+      </c>
+      <c r="BC9" t="n">
         <v>8</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BD9" t="n">
         <v>40</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>41.176470588235</v>
       </c>
       <c r="BE9" t="n">
         <v>1</v>
@@ -3689,10 +3689,10 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG9" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BH9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI9" t="n">
         <v>5</v>
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>20.3</v>
+        <v>26.9</v>
       </c>
       <c r="BR9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS9" t="n">
         <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>1</v>
       </c>
       <c r="CC9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3803,13 +3803,13 @@
         <v>3</v>
       </c>
       <c r="CS9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CT9" t="n">
         <v>11</v>
       </c>
       <c r="CU9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CV9" t="n">
         <v>2</v>
@@ -3827,7 +3827,7 @@
         <v>3</v>
       </c>
       <c r="DA9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB9" t="n">
         <v>100</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DG9" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,41 +3883,41 @@
         <v>802138</v>
       </c>
       <c r="E10" t="n">
-        <v>6.7944444444444</v>
+        <v>6.8315789473684</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
+        <v>13</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1027</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.9325</v>
+      </c>
+      <c r="L10" t="n">
+        <v>342.33333333333</v>
+      </c>
+      <c r="M10" t="n">
+        <v>25</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>12</v>
       </c>
-      <c r="H10" t="n">
-        <v>960</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.3623</v>
-      </c>
-      <c r="L10" t="n">
-        <v>480</v>
-      </c>
-      <c r="M10" t="n">
-        <v>23</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>8.695652173913</v>
-      </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.70246961</v>
+        <v>0.75715781</v>
       </c>
       <c r="AB10" t="n">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -3961,34 +3961,34 @@
         <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="AF10" t="n">
-        <v>81.91126279863499</v>
+        <v>82.428115015974</v>
       </c>
       <c r="AG10" t="n">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="AH10" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="n">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="AJ10" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
-        <v>47.368421052632</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
         <v>3</v>
       </c>
       <c r="AN10" t="n">
-        <v>25</v>
+        <v>23.076923076923</v>
       </c>
       <c r="AO10" t="n">
         <v>6</v>
@@ -4000,7 +4000,7 @@
         <v>7</v>
       </c>
       <c r="AR10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AS10" t="n">
         <v>4</v>
@@ -4021,37 +4021,37 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ10" t="n">
-        <v>57.142857142857</v>
+        <v>56.521739130435</v>
       </c>
       <c r="BA10" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB10" t="n">
-        <v>58.585858585859</v>
+        <v>57.692307692308</v>
       </c>
       <c r="BC10" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BD10" t="n">
-        <v>66.25</v>
+        <v>65.47619047619</v>
       </c>
       <c r="BE10" t="n">
         <v>5</v>
       </c>
       <c r="BF10" t="n">
-        <v>26.315789473684</v>
+        <v>25</v>
       </c>
       <c r="BG10" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="BH10" t="n">
         <v>6</v>
       </c>
       <c r="BI10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
@@ -4075,22 +4075,22 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>122.3</v>
+        <v>129.8</v>
       </c>
       <c r="BR10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT10" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
@@ -4102,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CA10" t="n">
         <v>10</v>
       </c>
       <c r="CB10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CC10" t="n">
         <v>13</v>
@@ -4159,16 +4159,16 @@
         <v>14</v>
       </c>
       <c r="CS10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CT10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CU10" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CV10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="DA10" t="n">
         <v>9</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="DG10" t="n">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>296434</v>
       </c>
       <c r="E11" t="n">
-        <v>6.97</v>
+        <v>6.947619047619</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>1736</v>
+        <v>1826</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>1736</v>
+        <v>1826</v>
       </c>
       <c r="M11" t="n">
         <v>18</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.8142003799999999</v>
+        <v>0.82749038</v>
       </c>
       <c r="AB11" t="n">
-        <v>1420</v>
+        <v>1524</v>
       </c>
       <c r="AC11" t="n">
         <v>2</v>
@@ -4317,28 +4317,28 @@
         <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>1061</v>
+        <v>1148</v>
       </c>
       <c r="AF11" t="n">
-        <v>87.758478081059</v>
+        <v>87.969348659004</v>
       </c>
       <c r="AG11" t="n">
-        <v>1209</v>
+        <v>1305</v>
       </c>
       <c r="AH11" t="n">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="AI11" t="n">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="AJ11" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AK11" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL11" t="n">
-        <v>61.151079136691</v>
+        <v>60.13986013986</v>
       </c>
       <c r="AM11" t="n">
         <v>2</v>
@@ -4347,7 +4347,7 @@
         <v>40</v>
       </c>
       <c r="AO11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
         <v>31</v>
@@ -4356,19 +4356,19 @@
         <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AS11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
@@ -4383,25 +4383,25 @@
         <v>33.333333333333</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BB11" t="n">
-        <v>48.550724637681</v>
+        <v>48.22695035461</v>
       </c>
       <c r="BC11" t="n">
         <v>55</v>
       </c>
       <c r="BD11" t="n">
-        <v>47.008547008547</v>
+        <v>46.610169491525</v>
       </c>
       <c r="BE11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF11" t="n">
-        <v>57.142857142857</v>
+        <v>56.521739130435</v>
       </c>
       <c r="BG11" t="n">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="BH11" t="n">
         <v>22</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO11" t="n">
         <v>31</v>
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>139.4</v>
+        <v>145.9</v>
       </c>
       <c r="BR11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS11" t="n">
         <v>1</v>
       </c>
       <c r="BT11" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4467,7 +4467,7 @@
         <v>9</v>
       </c>
       <c r="CC11" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD11" t="n">
         <v>64</v>
@@ -4521,10 +4521,10 @@
         <v>5</v>
       </c>
       <c r="CU11" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CV11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="DA11" t="n">
         <v>19</v>
@@ -4554,16 +4554,16 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="DG11" t="n">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="DH11" t="n">
         <v>33</v>
       </c>
       <c r="DI11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DJ11" t="n">
         <v>2145585</v>
@@ -4595,16 +4595,16 @@
         <v>1131540</v>
       </c>
       <c r="E12" t="n">
-        <v>6.915</v>
+        <v>6.9</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>1351</v>
+        <v>1436</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>1.2264</v>
       </c>
       <c r="L12" t="n">
-        <v>675.5</v>
+        <v>718</v>
       </c>
       <c r="M12" t="n">
         <v>13</v>
@@ -4661,64 +4661,64 @@
         <v>2</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.54305582</v>
+        <v>1.58987412</v>
       </c>
       <c r="AB12" t="n">
-        <v>720</v>
+        <v>777</v>
       </c>
       <c r="AC12" t="n">
         <v>2</v>
       </c>
       <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>421</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>86.44763860369601</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>487</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>166</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>255</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>146</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>57.142857142857</v>
+      </c>
+      <c r="AM12" t="n">
         <v>11</v>
       </c>
-      <c r="AE12" t="n">
-        <v>390</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>86.474501108647</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>139</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>53.846153846154</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AN12" t="n">
+        <v>18.333333333333</v>
+      </c>
+      <c r="AO12" t="n">
         <v>10</v>
       </c>
-      <c r="AN12" t="n">
-        <v>17.857142857143</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>9</v>
-      </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AS12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AU12" t="n">
         <v>1</v>
@@ -4736,28 +4736,28 @@
         <v>11</v>
       </c>
       <c r="AZ12" t="n">
-        <v>52.380952380952</v>
+        <v>50</v>
       </c>
       <c r="BA12" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>58.823529411765</v>
+        <v>56.043956043956</v>
       </c>
       <c r="BC12" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BD12" t="n">
-        <v>61.643835616438</v>
+        <v>59.74025974026</v>
       </c>
       <c r="BE12" t="n">
         <v>5</v>
       </c>
       <c r="BF12" t="n">
-        <v>41.666666666667</v>
+        <v>35.714285714286</v>
       </c>
       <c r="BG12" t="n">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="BH12" t="n">
         <v>8</v>
@@ -4787,16 +4787,16 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>138.3</v>
+        <v>144.9</v>
       </c>
       <c r="BR12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS12" t="n">
         <v>4</v>
       </c>
       <c r="BT12" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>3</v>
       </c>
       <c r="CB12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC12" t="n">
         <v>7</v>
@@ -4868,19 +4868,19 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CS12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CT12" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="CU12" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="CV12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4892,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DA12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DB12" t="n">
-        <v>72.413793103448</v>
+        <v>73.333333333333</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="DG12" t="n">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>993952</v>
       </c>
       <c r="E13" t="n">
-        <v>6.6666666666667</v>
+        <v>6.6875</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>711</v>
+        <v>801</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.3470872</v>
+        <v>0.3680378</v>
       </c>
       <c r="AB13" t="n">
-        <v>480</v>
+        <v>562</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5029,28 +5029,28 @@
         <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="AF13" t="n">
-        <v>85.71428571428601</v>
+        <v>87.22466960352401</v>
       </c>
       <c r="AG13" t="n">
-        <v>378</v>
+        <v>454</v>
       </c>
       <c r="AH13" t="n">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="AI13" t="n">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="AJ13" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>48.484848484848</v>
+        <v>48.648648648649</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -5059,16 +5059,16 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AS13" t="n">
         <v>8</v>
@@ -5095,16 +5095,16 @@
         <v>36.363636363636</v>
       </c>
       <c r="BA13" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BB13" t="n">
-        <v>46.268656716418</v>
+        <v>45.070422535211</v>
       </c>
       <c r="BC13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD13" t="n">
-        <v>45.283018867925</v>
+        <v>43.859649122807</v>
       </c>
       <c r="BE13" t="n">
         <v>7</v>
@@ -5113,10 +5113,10 @@
         <v>50</v>
       </c>
       <c r="BG13" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="BH13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BI13" t="n">
         <v>8</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO13" t="n">
         <v>15</v>
@@ -5143,16 +5143,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="BR13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS13" t="n">
         <v>1</v>
       </c>
       <c r="BT13" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>6</v>
       </c>
       <c r="CC13" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="CD13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>3</v>
       </c>
       <c r="CU13" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CV13" t="n">
         <v>7</v>
@@ -5248,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="DA13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DB13" t="n">
-        <v>50</v>
+        <v>53.846153846154</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,16 +5266,16 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="DG13" t="n">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DJ13" t="n">
         <v>2190690</v>
@@ -5307,16 +5307,16 @@
         <v>1855502</v>
       </c>
       <c r="E14" t="n">
-        <v>6.955</v>
+        <v>6.947619047619</v>
       </c>
       <c r="F14" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" t="n">
         <v>20</v>
       </c>
-      <c r="G14" t="n">
-        <v>19</v>
-      </c>
       <c r="H14" t="n">
-        <v>1700</v>
+        <v>1790</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -5328,7 +5328,7 @@
         <v>0.4878</v>
       </c>
       <c r="L14" t="n">
-        <v>850</v>
+        <v>895</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
@@ -5370,49 +5370,49 @@
         <v>1</v>
       </c>
       <c r="Z14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.12352152</v>
+        <v>2.16782722</v>
       </c>
       <c r="AB14" t="n">
-        <v>979</v>
+        <v>1028</v>
       </c>
       <c r="AC14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="AF14" t="n">
-        <v>86.788990825688</v>
+        <v>86.631944444444</v>
       </c>
       <c r="AG14" t="n">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="AH14" t="n">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="AI14" t="n">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AJ14" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL14" t="n">
-        <v>32.142857142857</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AM14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN14" t="n">
-        <v>18.823529411765</v>
+        <v>18.888888888889</v>
       </c>
       <c r="AO14" t="n">
         <v>17</v>
@@ -5421,16 +5421,16 @@
         <v>18</v>
       </c>
       <c r="AQ14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR14" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AS14" t="n">
         <v>6</v>
       </c>
       <c r="AT14" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AU14" t="n">
         <v>1</v>
@@ -5445,37 +5445,37 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AZ14" t="n">
-        <v>50.943396226415</v>
+        <v>53.571428571429</v>
       </c>
       <c r="BA14" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="BB14" t="n">
-        <v>56.291390728477</v>
+        <v>56.329113924051</v>
       </c>
       <c r="BC14" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="BD14" t="n">
-        <v>59.848484848485</v>
+        <v>60.583941605839</v>
       </c>
       <c r="BE14" t="n">
         <v>6</v>
       </c>
       <c r="BF14" t="n">
-        <v>31.578947368421</v>
+        <v>28.571428571429</v>
       </c>
       <c r="BG14" t="n">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="BH14" t="n">
         <v>12</v>
       </c>
       <c r="BI14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BJ14" t="n">
         <v>5</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO14" t="n">
         <v>26</v>
@@ -5499,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>139.1</v>
+        <v>145.9</v>
       </c>
       <c r="BR14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT14" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>2</v>
       </c>
       <c r="CB14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CC14" t="n">
         <v>17</v>
@@ -5580,19 +5580,19 @@
         <v>50</v>
       </c>
       <c r="CR14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CS14" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="CT14" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="CU14" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="CV14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="DA14" t="n">
         <v>14</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="DG14" t="n">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>879618</v>
       </c>
       <c r="E15" t="n">
-        <v>6.81</v>
+        <v>6.8380952380952</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" t="n">
-        <v>1800</v>
+        <v>1890</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -5729,10 +5729,10 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.40012089</v>
+        <v>0.40834682</v>
       </c>
       <c r="AB15" t="n">
-        <v>1183</v>
+        <v>1297</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -5741,28 +5741,28 @@
         <v>5</v>
       </c>
       <c r="AE15" t="n">
-        <v>838</v>
+        <v>934</v>
       </c>
       <c r="AF15" t="n">
-        <v>89.14893617021301</v>
+        <v>89.463601532567</v>
       </c>
       <c r="AG15" t="n">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AH15" t="n">
-        <v>589</v>
+        <v>665</v>
       </c>
       <c r="AI15" t="n">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="AJ15" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AL15" t="n">
-        <v>43.333333333333</v>
+        <v>44.329896907216</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -5774,19 +5774,19 @@
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AS15" t="n">
         <v>15</v>
       </c>
       <c r="AT15" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AU15" t="n">
         <v>2</v>
@@ -5807,25 +5807,25 @@
         <v>100</v>
       </c>
       <c r="BA15" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="BB15" t="n">
-        <v>59.055118110236</v>
+        <v>59.090909090909</v>
       </c>
       <c r="BC15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
-        <v>59.090909090909</v>
+        <v>59.574468085106</v>
       </c>
       <c r="BE15" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BF15" t="n">
-        <v>59.036144578313</v>
+        <v>58.823529411765</v>
       </c>
       <c r="BG15" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="BH15" t="n">
         <v>3</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="BN15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO15" t="n">
         <v>32</v>
@@ -5855,16 +5855,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>136.2</v>
+        <v>143.6</v>
       </c>
       <c r="BR15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS15" t="n">
         <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5888,13 +5888,13 @@
         <v>1</v>
       </c>
       <c r="CB15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC15" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="CD15" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5945,10 +5945,10 @@
         <v>4</v>
       </c>
       <c r="CU15" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="CV15" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -5960,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="DA15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="DB15" t="n">
-        <v>69.230769230769</v>
+        <v>73.333333333333</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5978,16 +5978,16 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>626</v>
+        <v>704</v>
       </c>
       <c r="DG15" t="n">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="DH15" t="n">
         <v>8</v>
       </c>
       <c r="DI15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DJ15" t="n">
         <v>2145591</v>
@@ -6375,16 +6375,16 @@
         <v>998241</v>
       </c>
       <c r="E17" t="n">
-        <v>6.4466666666667</v>
+        <v>6.4625</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>823</v>
+        <v>909</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6441,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.05236844</v>
+        <v>1.05836557</v>
       </c>
       <c r="AB17" t="n">
-        <v>605</v>
+        <v>685</v>
       </c>
       <c r="AC17" t="n">
         <v>2</v>
@@ -6453,46 +6453,46 @@
         <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="AF17" t="n">
-        <v>80.32407407407401</v>
+        <v>81.69014084507</v>
       </c>
       <c r="AG17" t="n">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="AH17" t="n">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="AI17" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="AJ17" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL17" t="n">
-        <v>35.555555555556</v>
+        <v>38.297872340426</v>
       </c>
       <c r="AM17" t="n">
         <v>4</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>23.529411764706</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
       </c>
       <c r="AR17" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AS17" t="n">
         <v>10</v>
@@ -6516,34 +6516,34 @@
         <v>6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>42.857142857143</v>
+        <v>40</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BB17" t="n">
-        <v>51.515151515152</v>
+        <v>50</v>
       </c>
       <c r="BC17" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BD17" t="n">
-        <v>52.702702702703</v>
+        <v>51.851851851852</v>
       </c>
       <c r="BE17" t="n">
         <v>12</v>
       </c>
       <c r="BF17" t="n">
-        <v>48</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG17" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="BH17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BI17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
@@ -6567,16 +6567,16 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>96.7</v>
+        <v>103.4</v>
       </c>
       <c r="BR17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS17" t="n">
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="BU17" t="n">
         <v>1</v>
@@ -6600,13 +6600,13 @@
         <v>4</v>
       </c>
       <c r="CB17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CC17" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CD17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6651,52 +6651,52 @@
         <v>8</v>
       </c>
       <c r="CS17" t="n">
+        <v>15</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>17</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>54</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>15</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>47</v>
+      </c>
+      <c r="DA17" t="n">
         <v>14</v>
       </c>
-      <c r="CT17" t="n">
-        <v>16</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>48</v>
-      </c>
-      <c r="CV17" t="n">
+      <c r="DB17" t="n">
+        <v>70</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>263</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>234</v>
+      </c>
+      <c r="DH17" t="n">
         <v>13</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>45</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>12</v>
-      </c>
-      <c r="DB17" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="DC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF17" t="n">
-        <v>214</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>218</v>
-      </c>
-      <c r="DH17" t="n">
-        <v>12</v>
       </c>
       <c r="DI17" t="n">
         <v>1</v>
@@ -6731,16 +6731,16 @@
         <v>1131541</v>
       </c>
       <c r="E18" t="n">
-        <v>6.7133333333333</v>
+        <v>6.71875</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" t="n">
         <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6797,10 +6797,10 @@
         <v>2</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.40204343</v>
+        <v>0.40215361</v>
       </c>
       <c r="AB18" t="n">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="AC18" t="n">
         <v>2</v>
@@ -6809,16 +6809,16 @@
         <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="AF18" t="n">
-        <v>85.210084033613</v>
+        <v>85.264900662252</v>
       </c>
       <c r="AG18" t="n">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="AH18" t="n">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AI18" t="n">
         <v>217</v>
@@ -6842,13 +6842,13 @@
         <v>9</v>
       </c>
       <c r="AP18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AS18" t="n">
         <v>7</v>
@@ -6875,16 +6875,16 @@
         <v>58.333333333333</v>
       </c>
       <c r="BA18" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BB18" t="n">
-        <v>54.861111111111</v>
+        <v>55.172413793103</v>
       </c>
       <c r="BC18" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BD18" t="n">
-        <v>52.777777777778</v>
+        <v>53.424657534247</v>
       </c>
       <c r="BE18" t="n">
         <v>41</v>
@@ -6893,7 +6893,7 @@
         <v>56.944444444444</v>
       </c>
       <c r="BG18" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BH18" t="n">
         <v>18</v>
@@ -6923,16 +6923,16 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>100.7</v>
+        <v>107.5</v>
       </c>
       <c r="BR18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS18" t="n">
         <v>2</v>
       </c>
       <c r="BT18" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -7031,10 +7031,10 @@
         <v>44</v>
       </c>
       <c r="DA18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DB18" t="n">
-        <v>62.5</v>
+        <v>64.705882352941</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="DG18" t="n">
         <v>266</v>
@@ -7441,19 +7441,19 @@
         <v>831246</v>
       </c>
       <c r="E20" t="n">
-        <v>6.7545454545455</v>
+        <v>6.8666666666667</v>
       </c>
       <c r="F20" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" t="n">
         <v>11</v>
       </c>
-      <c r="G20" t="n">
-        <v>10</v>
-      </c>
       <c r="H20" t="n">
-        <v>928</v>
+        <v>1018</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -7462,7 +7462,7 @@
         <v>0.2448</v>
       </c>
       <c r="L20" t="n">
-        <v>928</v>
+        <v>1018</v>
       </c>
       <c r="M20" t="n">
         <v>6</v>
@@ -7507,10 +7507,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.72397081</v>
+        <v>0.74543791</v>
       </c>
       <c r="AB20" t="n">
-        <v>624</v>
+        <v>711</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7519,28 +7519,28 @@
         <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>381</v>
+        <v>441</v>
       </c>
       <c r="AF20" t="n">
-        <v>87.385321100917</v>
+        <v>87.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>436</v>
+        <v>504</v>
       </c>
       <c r="AH20" t="n">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="AI20" t="n">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="AJ20" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>35.483870967742</v>
+        <v>36.842105263158</v>
       </c>
       <c r="AM20" t="n">
         <v>5</v>
@@ -7552,19 +7552,19 @@
         <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
         <v>2</v>
       </c>
       <c r="AR20" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AS20" t="n">
         <v>9</v>
       </c>
       <c r="AT20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AU20" t="n">
         <v>2</v>
@@ -7585,31 +7585,31 @@
         <v>42.857142857143</v>
       </c>
       <c r="BA20" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="BB20" t="n">
-        <v>58.571428571429</v>
+        <v>62.5</v>
       </c>
       <c r="BC20" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="BD20" t="n">
-        <v>59.183673469388</v>
+        <v>63.793103448276</v>
       </c>
       <c r="BE20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF20" t="n">
-        <v>57.142857142857</v>
+        <v>59.090909090909</v>
       </c>
       <c r="BG20" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="BH20" t="n">
         <v>8</v>
       </c>
       <c r="BI20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BJ20" t="n">
         <v>1</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO20" t="n">
         <v>17</v>
@@ -7633,16 +7633,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>74.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="BR20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS20" t="n">
         <v>1</v>
       </c>
       <c r="BT20" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7666,13 +7666,13 @@
         <v>5</v>
       </c>
       <c r="CB20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CD20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7723,7 +7723,7 @@
         <v>18</v>
       </c>
       <c r="CU20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CV20" t="n">
         <v>9</v>
@@ -7738,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="DA20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="DB20" t="n">
-        <v>72.727272727273</v>
+        <v>70.58823529411799</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7756,16 +7756,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="DG20" t="n">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="DH20" t="n">
         <v>4</v>
       </c>
       <c r="DI20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ20" t="n">
         <v>2145535</v>
@@ -7797,16 +7797,16 @@
         <v>149656</v>
       </c>
       <c r="E21" t="n">
-        <v>6.9944444444444</v>
+        <v>7.0052631578947</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" t="n">
-        <v>1620</v>
+        <v>1710</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -7861,10 +7861,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01589189</v>
+        <v>0.01610563</v>
       </c>
       <c r="AB21" t="n">
-        <v>790</v>
+        <v>851</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7873,16 +7873,16 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>468</v>
+        <v>515</v>
       </c>
       <c r="AF21" t="n">
-        <v>75</v>
+        <v>76.183431952663</v>
       </c>
       <c r="AG21" t="n">
-        <v>624</v>
+        <v>676</v>
       </c>
       <c r="AH21" t="n">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="AI21" t="n">
         <v>44</v>
@@ -7891,10 +7891,10 @@
         <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL21" t="n">
-        <v>46.909090909091</v>
+        <v>46.830985915493</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AS21" t="n">
         <v>1</v>
@@ -7939,10 +7939,10 @@
         <v>100</v>
       </c>
       <c r="BA21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB21" t="n">
-        <v>92.30769230769199</v>
+        <v>92.857142857143</v>
       </c>
       <c r="BC21" t="n">
         <v>2</v>
@@ -7951,13 +7951,13 @@
         <v>66.666666666667</v>
       </c>
       <c r="BE21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BF21" t="n">
         <v>100</v>
       </c>
       <c r="BG21" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="BH21" t="n">
         <v>0</v>
@@ -7975,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="BM21" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BN21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO21" t="n">
         <v>25</v>
@@ -7987,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>125.9</v>
+        <v>133.1</v>
       </c>
       <c r="BR21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8023,10 +8023,10 @@
         <v>0</v>
       </c>
       <c r="CC21" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="CD21" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8038,10 +8038,10 @@
         <v>5</v>
       </c>
       <c r="CH21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CI21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CJ21" t="n">
         <v>23</v>
@@ -8059,7 +8059,7 @@
         <v>3</v>
       </c>
       <c r="CO21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CP21" t="n">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="DA21" t="n">
         <v>0</v>
@@ -8110,13 +8110,13 @@
         <v>10</v>
       </c>
       <c r="DF21" t="n">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="DG21" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="DH21" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="DI21" t="n">
         <v>0</v>
@@ -8130,7 +8130,7 @@
         </is>
       </c>
       <c r="DL21" t="n">
-        <v>-2.1632</v>
+        <v>-1.6909</v>
       </c>
     </row>
     <row r="22">
